--- a/0_logisticRegression.xlsx
+++ b/0_logisticRegression.xlsx
@@ -14,8 +14,37 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$72</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$G$8:$G$9</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>slope</t>
   </si>
@@ -45,6 +74,18 @@
     <t>usia x</t>
   </si>
   <si>
+    <t>logistic regression</t>
+  </si>
+  <si>
+    <t>exp slope</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>http://vassarstats.net/logreg1.html</t>
+  </si>
+  <si>
     <t>logistic reg y</t>
   </si>
 </sst>
@@ -52,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,13 +101,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,8 +156,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,7 +195,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11270128667071697"/>
+          <c:y val="4.2097206276310757E-2"/>
+          <c:w val="0.86040795702676198"/>
+          <c:h val="0.85646864822525459"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -124,15 +213,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>beliAsuransi y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Pengguna Asuransi</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -146,11 +227,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -604,6 +685,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Linear Regression</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -616,11 +700,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1030,15 +1114,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>logistic reg y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Logistic Regression</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1052,11 +1128,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1288,214 +1364,214 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>0.49004155854109238</c:v>
+                  <c:v>2.1319147154754289E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49436643559152976</c:v>
+                  <c:v>2.4311354978502453E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49869215590019733</c:v>
+                  <c:v>2.7711636917552272E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50301807199659121</c:v>
+                  <c:v>3.1572106599777154E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50734353629298168</c:v>
+                  <c:v>3.5950487854562355E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51166790147213814</c:v>
+                  <c:v>4.0910407522546564E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51599052087471076</c:v>
+                  <c:v>4.6521602241530909E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52031074888577566</c:v>
+                  <c:v>5.2860000418182292E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52462794132005197</c:v>
+                  <c:v>6.0007632109952844E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52894145580530549</c:v>
+                  <c:v>6.8052310783343201E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.53325065216345213</c:v>
+                  <c:v>7.7087022627170557E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53755489278888491</c:v>
+                  <c:v>8.7208952407326429E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.54185354302355071</c:v>
+                  <c:v>9.8518071327078433E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.54614597152831001</c:v>
+                  <c:v>0.11111521405935318</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.55043155065012395</c:v>
+                  <c:v>0.12509958153381531</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.55470965678461892</c:v>
+                  <c:v>0.14056562594251129</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.55897967073358956</c:v>
+                  <c:v>0.15759930743320305</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.56324097805701234</c:v>
+                  <c:v>0.17627376008435966</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.56749296941915373</c:v>
+                  <c:v>0.19664446852846765</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.57173504092836924</c:v>
+                  <c:v>0.21874413410668198</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.57596659447020204</c:v>
+                  <c:v>0.24257749540101745</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.58018703803340443</c:v>
+                  <c:v>0.2681164530503149</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.58439578602852194</c:v>
+                  <c:v>0.29529591954580303</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.58859225959869144</c:v>
+                  <c:v>0.32401085497901649</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.59277588692232441</c:v>
+                  <c:v>0.35411494287182194</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.59694610350736055</c:v>
+                  <c:v>0.38542129305981571</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.60110235247679444</c:v>
+                  <c:v>0.41770542575086439</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.60524408484519732</c:v>
+                  <c:v>0.45071059863449897</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.60937075978597044</c:v>
+                  <c:v>0.48415530703564863</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6134818448890883</c:v>
+                  <c:v>0.51774254727772817</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.61757681640910556</c:v>
+                  <c:v>0.55117022397470683</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.62165515950322225</c:v>
+                  <c:v>0.58414193972635053</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.62571636845922096</c:v>
+                  <c:v>0.61637735709278452</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.62975994691310588</c:v>
+                  <c:v>0.64762137704771738</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.63378540805629657</c:v>
+                  <c:v>0.67765152499543546</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.63779227483224721</c:v>
+                  <c:v>0.70628314763804423</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.64178008012237708</c:v>
+                  <c:v>0.73337226435202485</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.6457483669212275</c:v>
+                  <c:v>0.75881614712466439</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.64969668850076534</c:v>
+                  <c:v>0.78255189238874912</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.65362460856378513</c:v>
+                  <c:v>0.80455337727356224</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.65753170138637274</c:v>
+                  <c:v>0.8248270563011989</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.66141755194941199</c:v>
+                  <c:v>0.84340705833182861</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.66528175605913986</c:v>
+                  <c:v>0.86035000110440163</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.66912392045676516</c:v>
+                  <c:v>0.87572986870770142</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.67294366291718932</c:v>
+                  <c:v>0.88963321188391564</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.67674061233688199</c:v>
+                  <c:v>0.90215484537157076</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.68051440881098091</c:v>
+                  <c:v>0.91339413964998473</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.68426470369970238</c:v>
+                  <c:v>0.92345194153621057</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.68799115968416136</c:v>
+                  <c:v>0.93242811084765898</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.69169345081172151</c:v>
+                  <c:v>0.94041962814310831</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.69537126253099935</c:v>
+                  <c:v>0.94751920933957168</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.6990242917166728</c:v>
+                  <c:v>0.95381435409447402</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.70265224668424642</c:v>
+                  <c:v>0.95938675349847591</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.70625484719494647</c:v>
+                  <c:v>0.96431198637627791</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.70983182445092552</c:v>
+                  <c:v>0.96865944031266815</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.71338292108096946</c:v>
+                  <c:v>0.97249240186120811</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.71690789111691211</c:v>
+                  <c:v>0.97586826915247726</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.72040649996096751</c:v>
+                  <c:v>0.97883884857284209</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.72387852434420563</c:v>
+                  <c:v>0.98145070490227171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.72732375227640012</c:v>
+                  <c:v>0.98374554106506851</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.73074198298748894</c:v>
+                  <c:v>0.98576058939294531</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.7341330268608901</c:v>
+                  <c:v>0.98752900105304608</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.73749670535893186</c:v>
+                  <c:v>0.98908022413688401</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.7408328509406461</c:v>
+                  <c:v>0.99044036394957546</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.74414130697219838</c:v>
+                  <c:v>0.99163252140057034</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.74742192763021342</c:v>
+                  <c:v>0.99267710719257929</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.7506745777982754</c:v>
+                  <c:v>0.99359213084018816</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.75389913295687183</c:v>
+                  <c:v>0.99439346451652955</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.7570954790670622</c:v>
+                  <c:v>0.9950950824043816</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.76026351244814938</c:v>
+                  <c:v>0.99570927668297149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,7 +1579,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-606D-498C-87B3-2B41BC568DA9}"/>
+              <c16:uniqueId val="{00000001-B3BF-4702-AD48-8E2D4B94357C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1539,6 +1615,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Usia (tahun)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46952212524236608"/>
+              <c:y val="0.91252751782990482"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1601,6 +1740,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Menggunakan asuransi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1650,6 +1845,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71436130644097284"/>
+          <c:y val="0.50716508246804204"/>
+          <c:w val="0.21707841332667641"/>
+          <c:h val="0.18025575636867675"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1688,13 +1924,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2248,15 +2481,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>331470</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2541,34 +2774,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection sqref="A1:B71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2576,15 +2810,18 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>($G$4*A2)+$G$5</f>
+        <f t="shared" ref="C2:C33" si="0">($G$4*A2)+$G$5</f>
         <v>-3.9839034205231411E-2</v>
       </c>
       <c r="D2">
-        <f>1/(1+EXP(-C2))</f>
-        <v>0.49004155854109238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <f>1/(1+EXP(-1*(($J$4*A2)+$J$5)))</f>
+        <v>2.1319147154754289E-2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2592,18 +2829,23 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f>($G$4*A3)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>-2.2535211267605652E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">1/(1+EXP(-C3))</f>
-        <v>0.49436643559152976</v>
-      </c>
-      <c r="F3" t="s">
+        <f t="shared" ref="D3:D66" si="1">1/(1+EXP(-1*(($J$4*A3)+$J$5)))</f>
+        <v>2.4311354978502453E-2</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="3"/>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2611,12 +2853,12 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>($G$4*A4)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>-5.2313883299798941E-3</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.49869215590019733</v>
+        <f t="shared" si="1"/>
+        <v>2.7711636917552272E-2</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -2625,8 +2867,14 @@
         <f>SLOPE(B2:B71,A2:A71)</f>
         <v>1.7303822937625755E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.13439999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2634,12 +2882,12 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f>($G$4*A5)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>1.2072434607645857E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.50301807199659121</v>
+        <f t="shared" si="1"/>
+        <v>3.1572106599777154E-2</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -2648,8 +2896,14 @@
         <f>INTERCEPT(B2:B71,A2:A71)</f>
         <v>-5.7142857142857162E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-3.9609999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2657,15 +2911,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>($G$4*A6)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>2.9376257545271608E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.50734353629298168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>3.5950487854562355E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <f>EXP(J4)</f>
+        <v>1.1438502682561278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2673,15 +2934,21 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <f>($G$4*A7)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>4.6680080482897374E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.51166790147213814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>4.0910407522546564E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>0.32319999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2689,15 +2956,15 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <f>($G$4*A8)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>6.3983903420523125E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.51599052087471076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>4.6521602241530909E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2705,15 +2972,15 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <f>($G$4*A9)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>8.1287726358148876E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.52031074888577566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>5.2860000418182292E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2721,15 +2988,15 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <f>($G$4*A10)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>9.8591549295774628E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.52462794132005197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>6.0007632109952844E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2737,15 +3004,15 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <f>($G$4*A11)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.11589537223340038</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.52894145580530549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>6.8052310783343201E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2753,15 +3020,15 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f>($G$4*A12)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.13319919517102613</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.53325065216345213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>7.7087022627170557E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2769,15 +3036,15 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <f>($G$4*A13)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.15050301810865191</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.53755489278888491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>8.7208952407326429E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2785,15 +3052,15 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <f>($G$4*A14)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.16780684104627766</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.54185354302355071</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>9.8518071327078433E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2801,15 +3068,15 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <f>($G$4*A15)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.18511066398390341</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.54614597152831001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.11111521405935318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2817,12 +3084,12 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <f>($G$4*A16)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.20241448692152914</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.55043155065012395</v>
+        <f t="shared" si="1"/>
+        <v>0.12509958153381531</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2833,12 +3100,12 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <f>($G$4*A17)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.21971830985915491</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.55470965678461892</v>
+        <f t="shared" si="1"/>
+        <v>0.14056562594251129</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2849,12 +3116,12 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <f>($G$4*A18)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.23702213279678069</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.55897967073358956</v>
+        <f t="shared" si="1"/>
+        <v>0.15759930743320305</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2865,12 +3132,12 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <f>($G$4*A19)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.25432595573440642</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.56324097805701234</v>
+        <f t="shared" si="1"/>
+        <v>0.17627376008435966</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2881,12 +3148,12 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <f>($G$4*A20)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.2716297786720322</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.56749296941915373</v>
+        <f t="shared" si="1"/>
+        <v>0.19664446852846765</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2897,12 +3164,12 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <f>($G$4*A21)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.28893360160965792</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.57173504092836924</v>
+        <f t="shared" si="1"/>
+        <v>0.21874413410668198</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2913,12 +3180,12 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <f>($G$4*A22)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.3062374245472837</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.57596659447020204</v>
+        <f t="shared" si="1"/>
+        <v>0.24257749540101745</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2929,12 +3196,12 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <f>($G$4*A23)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.32354124748490942</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.58018703803340443</v>
+        <f t="shared" si="1"/>
+        <v>0.2681164530503149</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2945,12 +3212,12 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <f>($G$4*A24)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.3408450704225352</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0.58439578602852194</v>
+        <f t="shared" si="1"/>
+        <v>0.29529591954580303</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2961,12 +3228,12 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <f>($G$4*A25)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.35814889336016098</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.58859225959869144</v>
+        <f t="shared" si="1"/>
+        <v>0.32401085497901649</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2977,12 +3244,12 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <f>($G$4*A26)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.3754527162977867</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0.59277588692232441</v>
+        <f t="shared" si="1"/>
+        <v>0.35411494287182194</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2993,12 +3260,12 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <f>($G$4*A27)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.39275653923541248</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0.59694610350736055</v>
+        <f t="shared" si="1"/>
+        <v>0.38542129305981571</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -3009,12 +3276,12 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <f>($G$4*A28)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.41006036217303821</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0.60110235247679444</v>
+        <f t="shared" si="1"/>
+        <v>0.41770542575086439</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -3025,12 +3292,12 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <f>($G$4*A29)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.42736418511066399</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0.60524408484519732</v>
+        <f t="shared" si="1"/>
+        <v>0.45071059863449897</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -3041,12 +3308,12 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <f>($G$4*A30)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.44466800804828976</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0.60937075978597044</v>
+        <f t="shared" si="1"/>
+        <v>0.48415530703564863</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3057,12 +3324,12 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <f>($G$4*A31)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.46197183098591543</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>0.6134818448890883</v>
+        <f t="shared" si="1"/>
+        <v>0.51774254727772817</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -3073,12 +3340,12 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <f>($G$4*A32)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.47927565392354121</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>0.61757681640910556</v>
+        <f t="shared" si="1"/>
+        <v>0.55117022397470683</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3089,12 +3356,12 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <f>($G$4*A33)+$G$5</f>
+        <f t="shared" si="0"/>
         <v>0.49657947686116699</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>0.62165515950322225</v>
+        <f t="shared" si="1"/>
+        <v>0.58414193972635053</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3105,12 +3372,12 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <f>($G$4*A34)+$G$5</f>
+        <f t="shared" ref="C34:C65" si="2">($G$4*A34)+$G$5</f>
         <v>0.51388329979879277</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>0.62571636845922096</v>
+        <f t="shared" si="1"/>
+        <v>0.61637735709278452</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3121,12 +3388,12 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <f>($G$4*A35)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.53118712273641855</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0.62975994691310588</v>
+        <f t="shared" si="1"/>
+        <v>0.64762137704771738</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3137,12 +3404,12 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <f>($G$4*A36)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.54849094567404422</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0.63378540805629657</v>
+        <f t="shared" si="1"/>
+        <v>0.67765152499543546</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3153,12 +3420,12 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <f>($G$4*A37)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.56579476861167</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>0.63779227483224721</v>
+        <f t="shared" si="1"/>
+        <v>0.70628314763804423</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -3169,12 +3436,12 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <f>($G$4*A38)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.58309859154929577</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>0.64178008012237708</v>
+        <f t="shared" si="1"/>
+        <v>0.73337226435202485</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3185,12 +3452,12 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <f>($G$4*A39)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.60040241448692155</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>0.6457483669212275</v>
+        <f t="shared" si="1"/>
+        <v>0.75881614712466439</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -3201,12 +3468,12 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <f>($G$4*A40)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.61770623742454722</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>0.64969668850076534</v>
+        <f t="shared" si="1"/>
+        <v>0.78255189238874912</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -3217,12 +3484,12 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <f>($G$4*A41)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.635010060362173</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>0.65362460856378513</v>
+        <f t="shared" si="1"/>
+        <v>0.80455337727356224</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3233,12 +3500,12 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <f>($G$4*A42)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.65231388329979878</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>0.65753170138637274</v>
+        <f t="shared" si="1"/>
+        <v>0.8248270563011989</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -3249,12 +3516,12 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <f>($G$4*A43)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.66961770623742456</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>0.66141755194941199</v>
+        <f t="shared" si="1"/>
+        <v>0.84340705833182861</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3265,12 +3532,12 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <f>($G$4*A44)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.68692152917505034</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>0.66528175605913986</v>
+        <f t="shared" si="1"/>
+        <v>0.86035000110440163</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3281,12 +3548,12 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <f>($G$4*A45)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.70422535211267601</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>0.66912392045676516</v>
+        <f t="shared" si="1"/>
+        <v>0.87572986870770142</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -3297,12 +3564,12 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <f>($G$4*A46)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.72152917505030179</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>0.67294366291718932</v>
+        <f t="shared" si="1"/>
+        <v>0.88963321188391564</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -3313,12 +3580,12 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <f>($G$4*A47)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.73883299798792756</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>0.67674061233688199</v>
+        <f t="shared" si="1"/>
+        <v>0.90215484537157076</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3329,12 +3596,12 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <f>($G$4*A48)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.75613682092555334</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>0.68051440881098091</v>
+        <f t="shared" si="1"/>
+        <v>0.91339413964998473</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3345,12 +3612,12 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <f>($G$4*A49)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.77344064386317912</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>0.68426470369970238</v>
+        <f t="shared" si="1"/>
+        <v>0.92345194153621057</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3361,12 +3628,12 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <f>($G$4*A50)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.79074446680080479</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>0.68799115968416136</v>
+        <f t="shared" si="1"/>
+        <v>0.93242811084765898</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3377,12 +3644,12 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <f>($G$4*A51)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.80804828973843057</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>0.69169345081172151</v>
+        <f t="shared" si="1"/>
+        <v>0.94041962814310831</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3393,12 +3660,12 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <f>($G$4*A52)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.82535211267605635</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>0.69537126253099935</v>
+        <f t="shared" si="1"/>
+        <v>0.94751920933957168</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3409,12 +3676,12 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <f>($G$4*A53)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.84265593561368213</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
-        <v>0.6990242917166728</v>
+        <f t="shared" si="1"/>
+        <v>0.95381435409447402</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3425,12 +3692,12 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <f>($G$4*A54)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.8599597585513078</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
-        <v>0.70265224668424642</v>
+        <f t="shared" si="1"/>
+        <v>0.95938675349847591</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3441,12 +3708,12 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <f>($G$4*A55)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.87726358148893357</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
-        <v>0.70625484719494647</v>
+        <f t="shared" si="1"/>
+        <v>0.96431198637627791</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3457,12 +3724,12 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <f>($G$4*A56)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.89456740442655935</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
-        <v>0.70983182445092552</v>
+        <f t="shared" si="1"/>
+        <v>0.96865944031266815</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3473,12 +3740,12 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <f>($G$4*A57)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.91187122736418513</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
-        <v>0.71338292108096946</v>
+        <f t="shared" si="1"/>
+        <v>0.97249240186120811</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3489,12 +3756,12 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <f>($G$4*A58)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.92917505030181091</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
-        <v>0.71690789111691211</v>
+        <f t="shared" si="1"/>
+        <v>0.97586826915247726</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3505,12 +3772,12 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <f>($G$4*A59)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.94647887323943669</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
-        <v>0.72040649996096751</v>
+        <f t="shared" si="1"/>
+        <v>0.97883884857284209</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3521,12 +3788,12 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <f>($G$4*A60)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.96378269617706236</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
-        <v>0.72387852434420563</v>
+        <f t="shared" si="1"/>
+        <v>0.98145070490227171</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3537,12 +3804,12 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <f>($G$4*A61)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.98108651911468803</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
-        <v>0.72732375227640012</v>
+        <f t="shared" si="1"/>
+        <v>0.98374554106506851</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3553,12 +3820,12 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <f>($G$4*A62)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>0.99839034205231392</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
-        <v>0.73074198298748894</v>
+        <f t="shared" si="1"/>
+        <v>0.98576058939294531</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3569,12 +3836,12 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <f>($G$4*A63)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>1.0156941649899396</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
-        <v>0.7341330268608901</v>
+        <f t="shared" si="1"/>
+        <v>0.98752900105304608</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3585,12 +3852,12 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <f>($G$4*A64)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>1.0329979879275655</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
-        <v>0.73749670535893186</v>
+        <f t="shared" si="1"/>
+        <v>0.98908022413688401</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3601,12 +3868,12 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <f>($G$4*A65)+$G$5</f>
+        <f t="shared" si="2"/>
         <v>1.0503018108651911</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
-        <v>0.7408328509406461</v>
+        <f t="shared" si="1"/>
+        <v>0.99044036394957546</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3617,12 +3884,12 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <f>($G$4*A66)+$G$5</f>
+        <f t="shared" ref="C66:C71" si="3">($G$4*A66)+$G$5</f>
         <v>1.0676056338028168</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
-        <v>0.74414130697219838</v>
+        <f t="shared" si="1"/>
+        <v>0.99163252140057034</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3633,12 +3900,12 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <f>($G$4*A67)+$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.0849094567404427</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D71" si="1">1/(1+EXP(-C67))</f>
-        <v>0.74742192763021342</v>
+        <f t="shared" ref="D67:D71" si="4">1/(1+EXP(-1*(($J$4*A67)+$J$5)))</f>
+        <v>0.99267710719257929</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3649,12 +3916,12 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <f>($G$4*A68)+$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.1022132796780684</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
-        <v>0.7506745777982754</v>
+        <f t="shared" si="4"/>
+        <v>0.99359213084018816</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3665,12 +3932,12 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <f>($G$4*A69)+$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.1195171026156943</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
-        <v>0.75389913295687183</v>
+        <f t="shared" si="4"/>
+        <v>0.99439346451652955</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3681,12 +3948,12 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <f>($G$4*A70)+$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.1368209255533199</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
-        <v>0.7570954790670622</v>
+        <f t="shared" si="4"/>
+        <v>0.9950950824043816</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3697,16 +3964,17 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <f>($G$4*A71)+$G$5</f>
+        <f t="shared" si="3"/>
         <v>1.1541247484909456</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
-        <v>0.76026351244814938</v>
+        <f t="shared" si="4"/>
+        <v>0.99570927668297149</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>